--- a/defect_explanation.xlsx
+++ b/defect_explanation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\python_learning\quest_python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{819C962F-A6F9-4EF6-86C6-783CA990846E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{232E7A66-1926-4E21-B43E-3E1144A51EF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1D5E4532-6500-4A21-8F67-C79C9110F1C8}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -81,20 +81,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">4
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Enter the URL: www.demoblazer.com
-2. Navigate to cart
-3. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">QA
 </t>
   </si>
@@ -127,6 +113,111 @@
     <t xml:space="preserve">1. The demoblazer site opens
 2.  The user is redirected to the cart
 3. When clicked on 'Place order' it opens a place order form
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2
+</t>
+  </si>
+  <si>
+    <t>1. Enter the url: www.redmine.org
+2. Navigate to the register page
+3. Enter the details and submit
+4. Enter the username and password to login</t>
+  </si>
+  <si>
+    <t>1. The Redmine site must open
+2. The user should be able to redirect to the 'Home' page
+3. The user should be able to redirect to the 'Issues' page
+4. While clicking on the 'New issue' button, it must show the' Issue' register page
+5.  We must be able to enter new defect details and click on the 'Create' button
+6.  We should be directed to the confirmation page with defect details and defect ID</t>
+  </si>
+  <si>
+    <t>TEST DESCREIPTION</t>
+  </si>
+  <si>
+    <t>PRE - CONDITION</t>
+  </si>
+  <si>
+    <t>1. Chrome is up and running
+2. Network should be stable</t>
+  </si>
+  <si>
+    <t>1. Enter URL in the Chrome browser
+2. Login to the demoblazer site</t>
+  </si>
+  <si>
+    <t>Username
+and
+password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Enter the URL: www.redmine.org
+2. Click on 'Home' in the nav bar
+3. Click on the 'Issues' button
+4. Click on the 'New issue' button
+5. Verify if you can submit a new defect
+6. Verify if you got the defect ID
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. User must be logged in
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Verify whether the user can create a new bug
+2. Verify if the user got the defect ID
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Enter the URL in the Chrome browser
+2. Login to the Redmine site
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Chrome is up and running
+2. Network should be stable
+</t>
+  </si>
+  <si>
+    <t>1. The Redmine site must open
+2. The user must be able to redirect to the register page
+3. The user must be able to enter all the details and register themselves
+4. The user must be able to log in to the application after clicking on the login button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Defect details
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Username
+and
+password
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QA
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QA
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blocker
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">High priority
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Critical
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">High priority
 </t>
   </si>
 </sst>
@@ -163,9 +254,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -483,111 +573,178 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71CDB5CB-9510-4C76-BB63-04D5A5D56DB4}">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="113" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="90" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.6640625" customWidth="1"/>
-    <col min="2" max="2" width="34.44140625" customWidth="1"/>
-    <col min="3" max="3" width="17.88671875" customWidth="1"/>
-    <col min="4" max="4" width="48.6640625" customWidth="1"/>
-    <col min="5" max="5" width="31.6640625" customWidth="1"/>
-    <col min="6" max="6" width="22" customWidth="1"/>
-    <col min="7" max="7" width="21.77734375" customWidth="1"/>
-    <col min="8" max="8" width="24.88671875" customWidth="1"/>
-    <col min="9" max="9" width="23.21875" customWidth="1"/>
-    <col min="10" max="10" width="18.44140625" customWidth="1"/>
+    <col min="2" max="3" width="22.21875" customWidth="1"/>
+    <col min="4" max="4" width="34.44140625" customWidth="1"/>
+    <col min="5" max="5" width="11.21875" customWidth="1"/>
+    <col min="6" max="6" width="48.6640625" customWidth="1"/>
+    <col min="7" max="7" width="31.6640625" customWidth="1"/>
+    <col min="8" max="8" width="16.5546875" customWidth="1"/>
+    <col min="9" max="9" width="15.6640625" customWidth="1"/>
+    <col min="10" max="10" width="13.5546875" customWidth="1"/>
+    <col min="11" max="11" width="13.21875" customWidth="1"/>
+    <col min="12" max="12" width="10.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:12" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:12" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="70.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="8" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="2" t="s">
+      <c r="E8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="172.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="70.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="2"/>
-    </row>
-    <row r="8" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="D8" s="2" t="s">
-        <v>17</v>
+      <c r="H10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
